--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3040251.668520122</v>
+        <v>3034511.553811907</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359932</v>
+        <v>6663746.095359934</v>
       </c>
     </row>
     <row r="8">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0711398554625</v>
+        <v>32.21037699998019</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958793</v>
+        <v>162.9947207958795</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174285</v>
+        <v>72.50477145174311</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164567</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>310.3558840220604</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>100.0245722449259</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714823</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356721</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100817</v>
+        <v>59.24433418100831</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296167</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
         <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8980292624121</v>
+        <v>193.412363762343</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>128.8048704565636</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731822</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>117.5604398093787</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>63.1048604439183</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>313.4020972507756</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -946,13 +946,13 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>196.889762398448</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>50.09791697323062</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>30.60408762095414</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>129.8110638510806</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>83.70639577378861</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>38.11761032550675</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.2158650008716</v>
       </c>
       <c r="D13" t="n">
-        <v>72.97550387677153</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1584,16 +1584,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.52376917206054</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>74.75769145492316</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873195</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>127.3165365479897</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>114.4746605491556</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,7 +2177,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247745</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>55.20079234900532</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2298,16 +2298,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>249.7626269887636</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>37.94510558336358</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,19 +2769,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>181.1375494785986</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.47396808835254</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56997216773253</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>109.9896305583484</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>28.87187436015506</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>262.0921899533151</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>73.34931970216554</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>155.658711802241</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>92.49190324064752</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>283.0681117720017</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>92.7224286874788</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.230025484176226</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9951719589016</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>114.4746605491556</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>177.1583027799679</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1795.940509280693</v>
+        <v>1354.59765034726</v>
       </c>
       <c r="C2" t="n">
-        <v>1426.977992340281</v>
+        <v>985.6351334068479</v>
       </c>
       <c r="D2" t="n">
-        <v>1426.977992340281</v>
+        <v>985.6351334068479</v>
       </c>
       <c r="E2" t="n">
-        <v>1041.189739742037</v>
+        <v>985.6351334068479</v>
       </c>
       <c r="F2" t="n">
-        <v>630.203834952429</v>
+        <v>574.6492286172404</v>
       </c>
       <c r="G2" t="n">
-        <v>211.9501583307497</v>
+        <v>542.1134942738261</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307497</v>
+        <v>211.9501583307498</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369991</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015916</v>
+        <v>138.9642385015911</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060723</v>
+        <v>397.0764468060714</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927216</v>
+        <v>769.56409259272</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689016</v>
+        <v>1200.634914689014</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811685</v>
+        <v>1624.048915811682</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633678</v>
+        <v>1978.679112633674</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054138</v>
+        <v>2243.673398054134</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684995</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804447</v>
+        <v>2292.214167804442</v>
       </c>
       <c r="S2" t="n">
-        <v>2109.431301222168</v>
+        <v>2292.214167804442</v>
       </c>
       <c r="T2" t="n">
-        <v>2109.431301222168</v>
+        <v>2292.214167804442</v>
       </c>
       <c r="U2" t="n">
-        <v>2109.431301222168</v>
+        <v>2038.429192960944</v>
       </c>
       <c r="V2" t="n">
-        <v>2109.431301222168</v>
+        <v>1707.366305617374</v>
       </c>
       <c r="W2" t="n">
-        <v>2109.431301222168</v>
+        <v>1354.59765034726</v>
       </c>
       <c r="X2" t="n">
-        <v>1795.940509280693</v>
+        <v>1354.59765034726</v>
       </c>
       <c r="Y2" t="n">
-        <v>1795.940509280693</v>
+        <v>1354.59765034726</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>643.6546745992302</v>
+        <v>676.4684781346486</v>
       </c>
       <c r="C3" t="n">
-        <v>469.2016453181033</v>
+        <v>502.0154488535216</v>
       </c>
       <c r="D3" t="n">
-        <v>469.2016453181033</v>
+        <v>353.0810391922703</v>
       </c>
       <c r="E3" t="n">
-        <v>368.1667238585821</v>
+        <v>193.8435841868148</v>
       </c>
       <c r="F3" t="n">
-        <v>221.6321658854671</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6321658854671</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435658</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369991</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="J3" t="n">
-        <v>108.2048630683013</v>
+        <v>108.204863068301</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138137</v>
+        <v>338.906390713813</v>
       </c>
       <c r="L3" t="n">
-        <v>710.5174612568471</v>
+        <v>501.770269185293</v>
       </c>
       <c r="M3" t="n">
-        <v>987.4020823874851</v>
+        <v>987.402082387482</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.594138030034</v>
+        <v>1501.59413803003</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119907</v>
+        <v>1905.563735119903</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695916</v>
+        <v>2212.781883695911</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684995</v>
+        <v>2365.45131068499</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885997</v>
+        <v>2305.608548885992</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926788</v>
+        <v>2144.554785926783</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087519</v>
+        <v>1945.051103087514</v>
       </c>
       <c r="U3" t="n">
-        <v>1716.871275549729</v>
+        <v>1749.685079085148</v>
       </c>
       <c r="V3" t="n">
-        <v>1481.719167317987</v>
+        <v>1514.532970853405</v>
       </c>
       <c r="W3" t="n">
-        <v>1227.481810589785</v>
+        <v>1260.295614125203</v>
       </c>
       <c r="X3" t="n">
-        <v>1019.630310384252</v>
+        <v>1052.444113919671</v>
       </c>
       <c r="Y3" t="n">
-        <v>811.8700116192983</v>
+        <v>844.6838151547167</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346.5447812684039</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="C4" t="n">
-        <v>346.5447812684039</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="D4" t="n">
-        <v>216.4388515142992</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="E4" t="n">
-        <v>216.4388515142992</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="F4" t="n">
-        <v>216.4388515142992</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369991</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369991</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369991</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369991</v>
+        <v>47.30902621369981</v>
       </c>
       <c r="K4" t="n">
-        <v>88.8052941018164</v>
+        <v>88.80529410181609</v>
       </c>
       <c r="L4" t="n">
-        <v>197.432664936567</v>
+        <v>197.4326649365664</v>
       </c>
       <c r="M4" t="n">
-        <v>322.354119895061</v>
+        <v>322.3541198950601</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896758</v>
+        <v>449.7398382896747</v>
       </c>
       <c r="O4" t="n">
-        <v>551.384871688595</v>
+        <v>551.3848716885935</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546214</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="Q4" t="n">
-        <v>574.5343321664212</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="R4" t="n">
-        <v>574.5343321664212</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="S4" t="n">
-        <v>574.5343321664212</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="T4" t="n">
-        <v>574.5343321664212</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="U4" t="n">
-        <v>574.5343321664212</v>
+        <v>614.8390752546197</v>
       </c>
       <c r="V4" t="n">
-        <v>574.5343321664212</v>
+        <v>496.0911562552473</v>
       </c>
       <c r="W4" t="n">
-        <v>574.5343321664212</v>
+        <v>496.0911562552473</v>
       </c>
       <c r="X4" t="n">
-        <v>346.5447812684039</v>
+        <v>268.1016053572299</v>
       </c>
       <c r="Y4" t="n">
-        <v>346.5447812684039</v>
+        <v>47.30902621369981</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1796.25819089779</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="C5" t="n">
-        <v>1427.295673957378</v>
+        <v>2096.980396922474</v>
       </c>
       <c r="D5" t="n">
-        <v>1427.295673957378</v>
+        <v>1738.714698315723</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1352.926445717479</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>941.9405409278713</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>523.9767328260582</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.723949158869</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.723949158869</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W5" t="n">
-        <v>2169.723949158869</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X5" t="n">
-        <v>1796.25819089779</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="Y5" t="n">
-        <v>1796.25819089779</v>
+        <v>2465.942913862885</v>
       </c>
     </row>
     <row r="6">
@@ -4664,7 +4664,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4673,7 +4673,7 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
         <v>2289.884200196743</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>286.5323736931987</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D7" t="n">
-        <v>286.5323736931987</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E7" t="n">
-        <v>286.5323736931987</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F7" t="n">
-        <v>286.5323736931987</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G7" t="n">
-        <v>286.5323736931987</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036444</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1525.746656041709</v>
+        <v>1447.000728742896</v>
       </c>
       <c r="C8" t="n">
-        <v>1525.746656041709</v>
+        <v>1447.000728742896</v>
       </c>
       <c r="D8" t="n">
-        <v>1167.480957434959</v>
+        <v>1088.735030136145</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>702.9467775379012</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>291.9608727482936</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4801,22 +4801,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017521</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="Y8" t="n">
-        <v>1525.746656041709</v>
+        <v>1447.000728742896</v>
       </c>
     </row>
     <row r="9">
@@ -4877,10 +4877,10 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4898,10 +4898,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.2948950230955</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>240.3587120951886</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D10" t="n">
-        <v>240.3587120951886</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>92.44561851279551</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>92.44561851279551</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>409.2948950230955</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>409.2948950230955</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.2948950230955</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
@@ -5038,55 +5038,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5132,16 +5132,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>777.9967291146783</v>
+        <v>533.5270475124396</v>
       </c>
       <c r="C13" t="n">
-        <v>777.9967291146783</v>
+        <v>391.8948606428723</v>
       </c>
       <c r="D13" t="n">
-        <v>704.2840989361212</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
         <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.890966501056</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1288.206478295169</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W13" t="n">
-        <v>998.7893082582084</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="X13" t="n">
-        <v>998.7893082582084</v>
+        <v>935.9680914862095</v>
       </c>
       <c r="Y13" t="n">
-        <v>777.9967291146783</v>
+        <v>715.1755123426793</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5275,55 +5275,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L14" t="n">
         <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>1770.231306037953</v>
+        <v>1770.231306037952</v>
       </c>
       <c r="N14" t="n">
-        <v>2602.177459903277</v>
+        <v>2749.983578264599</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5348,22 +5348,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>557.3941514382108</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="C16" t="n">
-        <v>557.3941514382108</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="D16" t="n">
-        <v>557.3941514382108</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="E16" t="n">
-        <v>409.4810578558177</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1644.746393431758</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1390.061905225871</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W16" t="n">
-        <v>1100.64473518891</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X16" t="n">
-        <v>872.655184290893</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y16" t="n">
-        <v>651.8626051473628</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="17">
@@ -5491,55 +5491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427191</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>1770.231306037953</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903277</v>
+        <v>2883.99303492678</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3763.957685256235</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946815</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>391.8664332433621</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,19 +5752,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>1014.851249206416</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1465.885462454824</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5779,25 +5779,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5831,25 +5831,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3514.600263832044</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="C22" t="n">
-        <v>3458.841887721937</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="D22" t="n">
-        <v>3308.725248309602</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="E22" t="n">
-        <v>3160.812154727209</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="F22" t="n">
-        <v>3160.812154727209</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="G22" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>4274.768765573601</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>3985.665898699244</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>3985.665898699244</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W22" t="n">
-        <v>3696.248728662284</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X22" t="n">
-        <v>3696.248728662284</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y22" t="n">
-        <v>3696.248728662284</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="23">
@@ -5983,7 +5983,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>529.525731183237</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C25" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U25" t="n">
-        <v>1704.057984297872</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V25" t="n">
-        <v>1449.373496091985</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W25" t="n">
-        <v>1159.956326055024</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X25" t="n">
-        <v>931.9667751570069</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y25" t="n">
-        <v>711.1741960134767</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6226,25 +6226,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2536.153662641309</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6296,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6305,25 +6305,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>974.4454116758762</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>805.5092287479694</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6387,7 +6387,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1453.060509258584</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1163.643339221624</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>1163.643339221624</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1156.093876506116</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6442,13 +6442,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
         <v>850.213983755162</v>
@@ -6463,28 +6463,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1034.340101969334</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6502,7 +6502,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6533,7 +6533,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6542,25 +6542,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>583.5523174165364</v>
+        <v>410.7144041584436</v>
       </c>
       <c r="C31" t="n">
-        <v>583.5523174165364</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D31" t="n">
-        <v>583.5523174165364</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E31" t="n">
-        <v>435.6392238341433</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F31" t="n">
-        <v>435.6392238341433</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1644.746393431758</v>
+        <v>1653.556945003905</v>
       </c>
       <c r="U31" t="n">
-        <v>1355.643526557401</v>
+        <v>1364.454078129548</v>
       </c>
       <c r="V31" t="n">
-        <v>1100.959038351514</v>
+        <v>1109.769589923661</v>
       </c>
       <c r="W31" t="n">
-        <v>811.5418683145538</v>
+        <v>820.3524198867007</v>
       </c>
       <c r="X31" t="n">
-        <v>583.5523174165364</v>
+        <v>592.3628689886833</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.5523174165364</v>
+        <v>592.3628689886833</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L32" t="n">
-        <v>1650.184003770974</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2593.249184644075</v>
+        <v>1923.729615463052</v>
       </c>
       <c r="N32" t="n">
-        <v>3573.001456870722</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6770,7 +6770,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6779,25 +6779,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6861,7 +6861,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,31 +6873,31 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.179956650002</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T34" t="n">
-        <v>1705.413341219528</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U34" t="n">
-        <v>1416.310474345171</v>
+        <v>1188.320923447154</v>
       </c>
       <c r="V34" t="n">
-        <v>1161.625986139284</v>
+        <v>933.636435241267</v>
       </c>
       <c r="W34" t="n">
-        <v>872.2088161023238</v>
+        <v>644.2192652043065</v>
       </c>
       <c r="X34" t="n">
         <v>644.2192652043065</v>
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6925,10 +6925,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6937,52 +6937,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4231.233819318588</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.712021827576</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,25 +7016,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>781.811212990069</v>
+        <v>567.9454261809092</v>
       </c>
       <c r="C37" t="n">
-        <v>612.8750300621621</v>
+        <v>399.0092432530023</v>
       </c>
       <c r="D37" t="n">
-        <v>462.7583906498263</v>
+        <v>399.0092432530023</v>
       </c>
       <c r="E37" t="n">
-        <v>388.668168728447</v>
+        <v>399.0092432530023</v>
       </c>
       <c r="F37" t="n">
-        <v>241.7782212305366</v>
+        <v>399.0092432530023</v>
       </c>
       <c r="G37" t="n">
         <v>241.7782212305366</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U37" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V37" t="n">
-        <v>1701.658977898817</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="W37" t="n">
-        <v>1412.241807861856</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="X37" t="n">
-        <v>1184.252256963839</v>
+        <v>970.386470154679</v>
       </c>
       <c r="Y37" t="n">
-        <v>963.4596778203087</v>
+        <v>749.5938910111489</v>
       </c>
     </row>
     <row r="38">
@@ -7174,25 +7174,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L38" t="n">
-        <v>1586.925993846824</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>2120.457898518748</v>
+        <v>2782.232616025902</v>
       </c>
       <c r="N38" t="n">
-        <v>2667.236715577531</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
         <v>4719.034655862919</v>
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7253,13 +7253,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>525.6262188911253</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="C40" t="n">
-        <v>356.6900359632184</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D40" t="n">
-        <v>356.6900359632184</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E40" t="n">
-        <v>356.6900359632184</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F40" t="n">
-        <v>356.6900359632184</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G40" t="n">
-        <v>188.9871993379374</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U40" t="n">
-        <v>1445.473983799873</v>
+        <v>1167.133123630299</v>
       </c>
       <c r="V40" t="n">
-        <v>1445.473983799873</v>
+        <v>1167.133123630299</v>
       </c>
       <c r="W40" t="n">
-        <v>1156.056813762912</v>
+        <v>877.7159535933382</v>
       </c>
       <c r="X40" t="n">
-        <v>928.0672628648952</v>
+        <v>877.7159535933382</v>
       </c>
       <c r="Y40" t="n">
-        <v>707.274683721365</v>
+        <v>656.9233744498081</v>
       </c>
     </row>
     <row r="41">
@@ -7405,34 +7405,34 @@
         <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>443.8820807562848</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1098.605412891584</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1549.639626139993</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2528.189928969822</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N41" t="n">
-        <v>3507.942201196468</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O41" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7481,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7490,28 +7490,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>583.5523174165364</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="C43" t="n">
-        <v>583.5523174165364</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D43" t="n">
-        <v>433.4356780042007</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E43" t="n">
-        <v>433.4356780042007</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F43" t="n">
-        <v>286.5457305062903</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G43" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1861.230154837811</v>
       </c>
       <c r="T43" t="n">
-        <v>1644.746393431758</v>
+        <v>1861.230154837811</v>
       </c>
       <c r="U43" t="n">
-        <v>1355.643526557401</v>
+        <v>1861.230154837811</v>
       </c>
       <c r="V43" t="n">
-        <v>1100.959038351514</v>
+        <v>1606.545666631924</v>
       </c>
       <c r="W43" t="n">
-        <v>811.5418683145538</v>
+        <v>1317.128496594963</v>
       </c>
       <c r="X43" t="n">
-        <v>583.5523174165364</v>
+        <v>1089.138945696946</v>
       </c>
       <c r="Y43" t="n">
-        <v>583.5523174165364</v>
+        <v>868.3463665534156</v>
       </c>
     </row>
     <row r="44">
@@ -7654,7 +7654,7 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1237.706702364128</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M44" t="n">
         <v>2216.257005193957</v>
@@ -7663,7 +7663,7 @@
         <v>3196.009277420604</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P44" t="n">
         <v>4470.748294107237</v>
@@ -7681,13 +7681,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7718,7 +7718,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7727,28 +7727,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>211.1920047000667</v>
+        <v>823.6560115477723</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7809,7 +7809,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1777.395685518877</v>
       </c>
       <c r="T46" t="n">
-        <v>1674.827124689058</v>
+        <v>1777.395685518877</v>
       </c>
       <c r="U46" t="n">
-        <v>1385.724257814702</v>
+        <v>1777.395685518877</v>
       </c>
       <c r="V46" t="n">
-        <v>1131.039769608815</v>
+        <v>1522.71119731299</v>
       </c>
       <c r="W46" t="n">
-        <v>841.6225995718539</v>
+        <v>1233.294027276029</v>
       </c>
       <c r="X46" t="n">
-        <v>613.6330486738366</v>
+        <v>1005.304476378012</v>
       </c>
       <c r="Y46" t="n">
-        <v>392.8404695303064</v>
+        <v>1005.304476378012</v>
       </c>
     </row>
   </sheetData>
@@ -8063,10 +8063,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>159.9845957362339</v>
       </c>
       <c r="M3" t="n">
-        <v>254.849314182776</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783513</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,10 +8938,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>288.0478149561031</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>231.5010718068644</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>288.0478149561031</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>315.1679217109327</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>231.5010718068651</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9412,10 +9412,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>282.7041781993175</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>251.186781668399</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>413.669975960784</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>132.9990175570132</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>29.61882225792191</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>29.61882225792135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>246.4545694808461</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>161.0524397463283</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>170.1140909277306</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>27.03095609775627</v>
       </c>
       <c r="D13" t="n">
-        <v>75.63996914144083</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86.30821100987676</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>69.99732345939762</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>52.51544363394756</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>112.0460287496225</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>91.26811680410508</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>36.44921121684925</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>248.5778927532274</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>105.0742887270143</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>211.1106852637423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>70.45583609129569</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>109.5593187178208</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>160.8971509712868</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>24.11964825229779</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>73.08464294440363</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>10.36709645678724</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>52.26311167367327</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>3.143726433611164</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>73.30337957154943</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>184.5389998472657</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>52.77216054947225</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>12.61072255147397</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>742516.1418197855</v>
+        <v>742516.1418197853</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>742516.1418197855</v>
+        <v>742516.1418197853</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>742516.1418197855</v>
+        <v>742516.1418197856</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846401</v>
+        <v>697885.5043846399</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
-        <v>675039.0377078711</v>
+        <v>675039.0377078716</v>
       </c>
       <c r="F2" t="n">
-        <v>675039.0377078715</v>
+        <v>675039.0377078714</v>
       </c>
       <c r="G2" t="n">
-        <v>675039.0377078715</v>
+        <v>675039.0377078712</v>
       </c>
       <c r="H2" t="n">
-        <v>675039.0377078718</v>
+        <v>675039.0377078714</v>
       </c>
       <c r="I2" t="n">
-        <v>675039.0377078714</v>
+        <v>675039.0377078716</v>
       </c>
       <c r="J2" t="n">
         <v>675039.0377078713</v>
       </c>
       <c r="K2" t="n">
-        <v>675039.0377078713</v>
+        <v>675039.0377078714</v>
       </c>
       <c r="L2" t="n">
-        <v>675039.0377078713</v>
+        <v>675039.0377078715</v>
       </c>
       <c r="M2" t="n">
         <v>675039.0377078716</v>
       </c>
       <c r="N2" t="n">
-        <v>675039.0377078718</v>
+        <v>675039.0377078716</v>
       </c>
       <c r="O2" t="n">
-        <v>675039.0377078714</v>
+        <v>675039.0377078715</v>
       </c>
       <c r="P2" t="n">
-        <v>675039.0377078714</v>
+        <v>675039.0377078713</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106495</v>
+        <v>493391.6844106481</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446767</v>
+        <v>91792.63957446898</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832162</v>
+        <v>154726.5356832159</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220046</v>
+        <v>21342.09858220077</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235704.9591760453</v>
+        <v>235704.9591760457</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26426,40 +26426,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.8393528958</v>
       </c>
       <c r="F4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289582</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.8393528958</v>
       </c>
       <c r="I4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="K4" t="n">
         <v>28561.83935289576</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="M4" t="n">
         <v>28561.83935289576</v>
       </c>
       <c r="N4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="O4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="P4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289577</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140134</v>
+        <v>76261.10613140123</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
@@ -26493,25 +26493,25 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-107472.245333456</v>
+        <v>-107472.2453334551</v>
       </c>
       <c r="C6" t="n">
-        <v>313311.3712837304</v>
+        <v>313311.3712837293</v>
       </c>
       <c r="D6" t="n">
-        <v>405104.0108581983</v>
+        <v>405104.0108581984</v>
       </c>
       <c r="E6" t="n">
-        <v>-177283.7338921449</v>
+        <v>-177955.6887944023</v>
       </c>
       <c r="F6" t="n">
-        <v>550093.6801012622</v>
+        <v>549421.7251990042</v>
       </c>
       <c r="G6" t="n">
-        <v>550093.6801012622</v>
+        <v>549421.7251990038</v>
       </c>
       <c r="H6" t="n">
-        <v>550093.6801012624</v>
+        <v>549421.7251990041</v>
       </c>
       <c r="I6" t="n">
-        <v>550093.6801012621</v>
+        <v>549421.7251990044</v>
       </c>
       <c r="J6" t="n">
-        <v>395367.1444180456</v>
+        <v>394695.189515788</v>
       </c>
       <c r="K6" t="n">
-        <v>528751.5815190615</v>
+        <v>528079.6266168033</v>
       </c>
       <c r="L6" t="n">
-        <v>550093.6801012619</v>
+        <v>549421.7251990043</v>
       </c>
       <c r="M6" t="n">
-        <v>420451.3652623174</v>
+        <v>419779.4103600596</v>
       </c>
       <c r="N6" t="n">
-        <v>550093.6801012624</v>
+        <v>549421.7251990044</v>
       </c>
       <c r="O6" t="n">
-        <v>550093.6801012621</v>
+        <v>549421.7251990043</v>
       </c>
       <c r="P6" t="n">
-        <v>550093.6801012621</v>
+        <v>549421.7251990041</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435508</v>
+        <v>306.3599178435497</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712489</v>
+        <v>591.3628276712476</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435508</v>
+        <v>306.3599178435497</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353581</v>
+        <v>71.38374637353684</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712489</v>
+        <v>591.3628276712476</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330664</v>
+        <v>82.92444508330784</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712489</v>
+        <v>591.3628276712476</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330664</v>
+        <v>82.92444508330784</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712489</v>
+        <v>591.3628276712476</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330664</v>
+        <v>82.92444508330784</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>381.8607628554823</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.9550379164568</v>
       </c>
       <c r="T2" t="n">
         <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>59.37521665640861</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27463,10 +27463,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>57.62050821047505</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.70865780356729</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>32.48566550006908</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>19.81060256164878</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
         <v>157.3153692344725</v>
@@ -27560,7 +27560,7 @@
         <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848763</v>
+        <v>54.30080173848776</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.90169565731838</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631662</v>
+        <v>152.4531265631663</v>
       </c>
       <c r="S4" t="n">
-        <v>214.3888609467085</v>
+        <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
         <v>225.5851113727656</v>
@@ -27596,7 +27596,7 @@
         <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>134.5772035144493</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>318.8255096283435</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>10.52067551358158</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27745,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>106.0729718685645</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>14.59587156758287</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>252.1193062211812</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>330.0777742470063</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>129.1921919335442</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.094947017729281e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>9.094947017729281e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672565</v>
+        <v>1.231597659672561</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212166</v>
+        <v>12.61309953212162</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452661</v>
+        <v>47.48116877452645</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676345</v>
+        <v>104.5303118676341</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015742</v>
+        <v>156.6638408015736</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787785</v>
+        <v>194.3553476787778</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589804</v>
+        <v>216.2577725589797</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095251</v>
+        <v>219.7570494095244</v>
       </c>
       <c r="O2" t="n">
-        <v>207.510350181156</v>
+        <v>207.5103501811553</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579896</v>
+        <v>177.105282957989</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709658</v>
+        <v>132.9986917709653</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940683</v>
+        <v>77.36434648940657</v>
       </c>
       <c r="S2" t="n">
-        <v>28.0650316697886</v>
+        <v>28.06503166978851</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216655</v>
+        <v>5.391318755216638</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380518</v>
+        <v>0.09852781277380485</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540527</v>
+        <v>0.6589628421540504</v>
       </c>
       <c r="H3" t="n">
-        <v>6.36419376501414</v>
+        <v>6.364193765014119</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784787</v>
+        <v>22.68797504784779</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403706</v>
+        <v>62.25753764403685</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683586</v>
+        <v>106.4080480683582</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966508</v>
+        <v>143.0787521966503</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247351</v>
+        <v>166.9661552247346</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302332</v>
+        <v>171.3852525302326</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382934</v>
+        <v>156.7840232382929</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723822</v>
+        <v>125.8330009723818</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338398</v>
+        <v>84.11602876338371</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163496</v>
+        <v>40.91349997163483</v>
       </c>
       <c r="S3" t="n">
-        <v>12.2399457742211</v>
+        <v>12.23994577422106</v>
       </c>
       <c r="T3" t="n">
-        <v>2.6560826839455</v>
+        <v>2.656082683945491</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276663</v>
+        <v>0.04335281856276649</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654193</v>
+        <v>0.5524523108654175</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967096</v>
+        <v>4.911803272967079</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584371</v>
+        <v>16.61374767584365</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818515</v>
+        <v>39.05837837818501</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509143</v>
+        <v>64.18491393509122</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448245</v>
+        <v>82.13459174448218</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502204</v>
+        <v>86.59941087502175</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361465</v>
+        <v>84.54027044361436</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395948</v>
+        <v>78.08662299395922</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230487</v>
+        <v>66.81659585230464</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437616</v>
+        <v>46.26034759437601</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400331</v>
+        <v>24.84026481400322</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263714</v>
+        <v>9.627737090263681</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515882</v>
+        <v>2.360478055515874</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084109</v>
+        <v>0.03013376241084099</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302194</v>
+        <v>92.58102251302159</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277584</v>
+        <v>260.7194023277578</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592417</v>
+        <v>376.250147259241</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245402</v>
+        <v>435.4250728245395</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249184</v>
+        <v>427.6909102249176</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222147</v>
+        <v>358.2123200222139</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742027</v>
+        <v>267.6709953742021</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.007992556421</v>
+        <v>123.0079925564205</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.5109463177792</v>
+        <v>61.51094631777899</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065782</v>
+        <v>233.0318461065778</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202358</v>
+        <v>164.50896815301</v>
       </c>
       <c r="M3" t="n">
-        <v>279.6814354854928</v>
+        <v>490.5371850527162</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904534</v>
+        <v>519.3859147904528</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705784</v>
+        <v>408.050098070578</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979891</v>
+        <v>310.3213621979887</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132116</v>
+        <v>154.2115424132113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920858</v>
+        <v>41.91542210920836</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047986</v>
+        <v>109.7246170047983</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368626</v>
+        <v>126.1832878368623</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228432</v>
+        <v>128.672442822843</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079992</v>
+        <v>102.6717509079989</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719836</v>
+        <v>64.09515511719813</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262116</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400157</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3496503690146</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>739.5540726950834</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>840.3496503690146</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>713.9299079303044</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>568.6923583622655</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>681.4661644186891</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>588.3780682237993</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>952.5910917910107</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>685.3008529699244</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>89.23202080014663</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>485.2089366502535</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>754.5075703690651</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>351.8394407150408</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7042053200628</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
